--- a/Uren Registratie Game-Lab 01.xlsx
+++ b/Uren Registratie Game-Lab 01.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="54">
   <si>
     <t>Maandag</t>
   </si>
@@ -171,13 +171,16 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>Carlo weg naar walibi</t>
-  </si>
-  <si>
     <t>Lara bezig met verhuizen</t>
   </si>
   <si>
     <t>Vakantie</t>
+  </si>
+  <si>
+    <t>Chantal tandards</t>
+  </si>
+  <si>
+    <t>Carlo weg naar walibi, Kevin naar Lan Party</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,12 +284,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD7AFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -565,7 +562,17 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -583,14 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -883,8 +883,8 @@
   <dimension ref="A1:O178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -943,25 +943,25 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="49"/>
       <c r="K2" s="24" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="8">
         <f>B8+B16+B24+B32+B40+B48+B56+B64+B72+B80+B88+B96+B104+B112+B120+B128+B136+B144+B152+B160+B168+B176</f>
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="M2" s="6">
         <f>C8+C16+C24+C32+C40+C48+C56+C64+C72+C80+C88+C96+C104+C112+C120+C128+C136+C144+C152+C160+C168+C176</f>
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="N2" s="17">
         <f>M2/L2</f>
@@ -1006,11 +1006,11 @@
       <c r="L3" s="8"/>
       <c r="M3" s="6">
         <f>D8+D16+D24+D32+D40+D48+D56+D64+D72+D80+D88+D96+D104+D112+D120+D128+D136+D144+D152+D160+D168+D176</f>
-        <v>118</v>
+        <v>139</v>
       </c>
       <c r="N3" s="17">
         <f>M3/L2</f>
-        <v>0.921875</v>
+        <v>0.93288590604026844</v>
       </c>
       <c r="O3" s="11" t="s">
         <v>34</v>
@@ -1051,7 +1051,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="6">
         <f>E8+E16+E24+E32+E40+E48+E56+E64+E72+E80+E88+E96+E104+E112+E120+E128+E136+E144+E152+E160+E168+E176</f>
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="N4" s="17">
         <f>M4/L2</f>
@@ -1096,11 +1096,11 @@
       <c r="L5" s="8"/>
       <c r="M5" s="6">
         <f>F8+F16+F24+F32+F40+F48+F56+F64+F72+F80+F88+F96+F104+F112+F120+F128+F136+F144+F152+F160+F168+F176</f>
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="N5" s="17">
         <f>M5/L2</f>
-        <v>0.984375</v>
+        <v>0.97315436241610742</v>
       </c>
       <c r="O5" s="12" t="s">
         <v>37</v>
@@ -1127,11 +1127,11 @@
       <c r="L6" s="8"/>
       <c r="M6" s="6">
         <f>G8+G16+G24+G32+G40+G48+G56+G64+G72+G80+G88+G96+G104+G112+G120+G128+G136+G144+G152+G160+G168+G176</f>
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="N6" s="17">
         <f>M6/L2</f>
-        <v>0.765625</v>
+        <v>0.73825503355704702</v>
       </c>
       <c r="O6" s="13" t="s">
         <v>38</v>
@@ -1170,11 +1170,11 @@
       <c r="L7" s="8"/>
       <c r="M7" s="6">
         <f>H8+H16+H24+H32+H40+H48+H56+H64+H72+H80+H88+H96+H104+H112+H120+H128+H136+H144+H152+H160+H168+H176</f>
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="N7" s="17">
         <f>M7/L2</f>
-        <v>0.65625</v>
+        <v>0.63758389261744963</v>
       </c>
       <c r="O7" s="14" t="s">
         <v>39</v>
@@ -1221,41 +1221,41 @@
       <c r="L8" s="8"/>
       <c r="M8" s="6">
         <f>I8+I16+I24+I32+I40+I48+I56+I64+I72+I80+I88+I96+I104+I112+I120+I128+I136+I144+I152+I160+I168+I176</f>
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="N8" s="17">
         <f>M8/L2</f>
-        <v>0.96875</v>
+        <v>0.97315436241610742</v>
       </c>
       <c r="O8" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="45"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="49"/>
       <c r="K10" s="23"/>
       <c r="L10" s="8"/>
     </row>
@@ -1462,30 +1462,30 @@
       <c r="L16" s="8"/>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="45"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
+      <c r="J18" s="49"/>
       <c r="K18" s="23"/>
       <c r="L18" s="8"/>
     </row>
@@ -1690,30 +1690,30 @@
       <c r="L24" s="8"/>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="45"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="49"/>
       <c r="K26" s="23"/>
       <c r="L26" s="8"/>
     </row>
@@ -1918,30 +1918,30 @@
       <c r="L32" s="8"/>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
+      <c r="A33" s="47"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="45"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="49"/>
       <c r="K34" s="23"/>
       <c r="L34" s="8"/>
     </row>
@@ -2148,30 +2148,30 @@
       <c r="L40" s="8"/>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
-      <c r="J41" s="43"/>
+      <c r="A41" s="47"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="47"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="47"/>
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="44"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="45"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="49"/>
       <c r="K42" s="23"/>
       <c r="L42" s="8"/>
     </row>
@@ -2204,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K43" s="23"/>
       <c r="L43" s="8"/>
@@ -2317,7 +2317,7 @@
       <c r="C47" s="7">
         <v>4</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="31">
         <v>3</v>
       </c>
       <c r="E47" s="7">
@@ -2326,10 +2326,10 @@
       <c r="F47" s="7">
         <v>4</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="31">
         <v>3</v>
       </c>
-      <c r="H47" s="40">
+      <c r="H47" s="31">
         <v>3</v>
       </c>
       <c r="I47" s="7">
@@ -2380,30 +2380,30 @@
       <c r="L48" s="8"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="43"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="45"/>
+      <c r="B50" s="48"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="49"/>
       <c r="K50" s="23"/>
       <c r="L50" s="8"/>
     </row>
@@ -2443,7 +2443,30 @@
       <c r="A52" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="8"/>
+      <c r="B52" s="8">
+        <v>5</v>
+      </c>
+      <c r="C52" s="6">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6">
+        <v>5</v>
+      </c>
+      <c r="E52" s="6">
+        <v>5</v>
+      </c>
+      <c r="F52" s="6">
+        <v>5</v>
+      </c>
+      <c r="G52" s="30">
+        <v>4</v>
+      </c>
+      <c r="H52" s="30">
+        <v>0</v>
+      </c>
+      <c r="I52" s="6">
+        <v>5</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="23"/>
       <c r="L52" s="8"/>
@@ -2452,7 +2475,30 @@
       <c r="A53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="8"/>
+      <c r="B53" s="8">
+        <v>6</v>
+      </c>
+      <c r="C53" s="6">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6">
+        <v>6</v>
+      </c>
+      <c r="E53" s="6">
+        <v>6</v>
+      </c>
+      <c r="F53" s="6">
+        <v>6</v>
+      </c>
+      <c r="G53" s="6">
+        <v>6</v>
+      </c>
+      <c r="H53" s="6">
+        <v>6</v>
+      </c>
+      <c r="I53" s="6">
+        <v>6</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="23"/>
       <c r="L53" s="8"/>
@@ -2461,7 +2507,30 @@
       <c r="A54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="8"/>
+      <c r="B54" s="8">
+        <v>2</v>
+      </c>
+      <c r="C54" s="6">
+        <v>2</v>
+      </c>
+      <c r="D54" s="6">
+        <v>2</v>
+      </c>
+      <c r="E54" s="6">
+        <v>2</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2</v>
+      </c>
+      <c r="G54" s="6">
+        <v>2</v>
+      </c>
+      <c r="H54" s="6">
+        <v>2</v>
+      </c>
+      <c r="I54" s="6">
+        <v>2</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="23"/>
       <c r="L54" s="8"/>
@@ -2470,17 +2539,31 @@
       <c r="A55" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="B55" s="7">
+        <v>4</v>
+      </c>
+      <c r="C55" s="7">
+        <v>4</v>
+      </c>
+      <c r="D55" s="44">
+        <v>4</v>
+      </c>
+      <c r="E55" s="7">
+        <v>4</v>
+      </c>
+      <c r="F55" s="31">
+        <v>2</v>
+      </c>
+      <c r="G55" s="29">
+        <v>0</v>
+      </c>
+      <c r="H55" s="31">
+        <v>3</v>
+      </c>
+      <c r="I55" s="7">
+        <v>4</v>
+      </c>
+      <c r="J55" s="2"/>
       <c r="K55" s="23"/>
       <c r="L55" s="8"/>
     </row>
@@ -2490,65 +2573,65 @@
       </c>
       <c r="B56" s="34">
         <f>B51+B52+B53+B54+B55</f>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C56" s="35">
         <f t="shared" ref="C56:H56" si="6">SUM(C51:C55)</f>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D56" s="35">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E56" s="35">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F56" s="35">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="G56" s="35">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="H56" s="35">
         <f t="shared" si="6"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I56" s="35">
         <f>SUM(I51:I55)</f>
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="J56" s="36"/>
       <c r="K56" s="23"/>
       <c r="L56" s="8"/>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="43"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="41"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="41"/>
-      <c r="J58" s="45"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="49"/>
       <c r="K58" s="23"/>
       <c r="L58" s="8"/>
     </row>
@@ -2556,7 +2639,28 @@
       <c r="A59" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B59" s="8"/>
+      <c r="B59" s="8">
+        <v>4</v>
+      </c>
+      <c r="C59" s="6">
+        <v>4</v>
+      </c>
+      <c r="D59" s="6">
+        <v>4</v>
+      </c>
+      <c r="E59" s="6">
+        <v>4</v>
+      </c>
+      <c r="F59" s="6">
+        <v>4</v>
+      </c>
+      <c r="G59" s="28">
+        <v>0</v>
+      </c>
+      <c r="H59" s="50"/>
+      <c r="I59" s="6">
+        <v>4</v>
+      </c>
       <c r="J59" s="1"/>
       <c r="K59" s="23"/>
       <c r="L59" s="8"/>
@@ -2585,7 +2689,9 @@
       </c>
       <c r="B62" s="8"/>
       <c r="C62" s="32"/>
-      <c r="J62" s="1"/>
+      <c r="J62" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="K62" s="23"/>
       <c r="L62" s="8"/>
     </row>
@@ -2595,13 +2701,15 @@
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="K63" s="23"/>
       <c r="L63" s="8"/>
     </row>
@@ -2611,23 +2719,23 @@
       </c>
       <c r="B64" s="34">
         <f>B59+B60+B61+B62+B63</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C64" s="35">
         <f t="shared" ref="C64:H64" si="7">SUM(C59:C63)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D64" s="35">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E64" s="35">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F64" s="35">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G64" s="35">
         <f t="shared" si="7"/>
@@ -2639,37 +2747,37 @@
       </c>
       <c r="I64" s="35">
         <f>SUM(I59:I63)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J64" s="36"/>
       <c r="K64" s="23"/>
       <c r="L64" s="8"/>
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="47"/>
+      <c r="F65" s="47"/>
+      <c r="G65" s="47"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="44"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="45"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="49"/>
       <c r="K66" s="23"/>
       <c r="L66" s="8"/>
     </row>
@@ -2678,15 +2786,15 @@
         <v>0</v>
       </c>
       <c r="B67" s="21"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="46"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
       <c r="J67" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K67" s="23"/>
       <c r="L67" s="8"/>
@@ -2696,33 +2804,33 @@
         <v>1</v>
       </c>
       <c r="B68" s="21"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
+      <c r="I68" s="40"/>
       <c r="J68" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K68" s="23"/>
-      <c r="L68" s="49"/>
+      <c r="L68" s="43"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B69" s="21"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="46"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="40"/>
+      <c r="I69" s="40"/>
       <c r="J69" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K69" s="23"/>
       <c r="L69" s="8"/>
@@ -2732,33 +2840,33 @@
         <v>3</v>
       </c>
       <c r="B70" s="21"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="40"/>
+      <c r="I70" s="40"/>
       <c r="J70" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K70" s="23"/>
       <c r="L70" s="8"/>
     </row>
     <row r="71" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A71" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
+      <c r="A71" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
       <c r="J71" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K71" s="23"/>
       <c r="L71" s="8"/>
@@ -2804,30 +2912,30 @@
       <c r="L72" s="8"/>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A73" s="43"/>
-      <c r="B73" s="43"/>
-      <c r="C73" s="43"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="43"/>
-      <c r="F73" s="43"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
+      <c r="A73" s="47"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="47"/>
+      <c r="G73" s="47"/>
+      <c r="H73" s="47"/>
+      <c r="I73" s="47"/>
+      <c r="J73" s="47"/>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B74" s="44"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-      <c r="J74" s="45"/>
+      <c r="B74" s="48"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="49"/>
       <c r="K74" s="23"/>
       <c r="L74" s="8"/>
     </row>
@@ -2924,30 +3032,30 @@
       <c r="L80" s="8"/>
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A81" s="43"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
+      <c r="A81" s="47"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="47"/>
+      <c r="I81" s="47"/>
+      <c r="J81" s="47"/>
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B82" s="44"/>
-      <c r="C82" s="41"/>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
-      <c r="F82" s="41"/>
-      <c r="G82" s="41"/>
-      <c r="H82" s="41"/>
-      <c r="I82" s="41"/>
-      <c r="J82" s="45"/>
+      <c r="B82" s="48"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="45"/>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="49"/>
       <c r="K82" s="23"/>
       <c r="L82" s="8"/>
     </row>
@@ -3044,30 +3152,30 @@
       <c r="L88" s="8"/>
     </row>
     <row r="89" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A89" s="43"/>
-      <c r="B89" s="43"/>
-      <c r="C89" s="43"/>
-      <c r="D89" s="43"/>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
-      <c r="I89" s="43"/>
-      <c r="J89" s="43"/>
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="47"/>
+      <c r="G89" s="47"/>
+      <c r="H89" s="47"/>
+      <c r="I89" s="47"/>
+      <c r="J89" s="47"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B90" s="44"/>
-      <c r="C90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
-      <c r="F90" s="41"/>
-      <c r="G90" s="41"/>
-      <c r="H90" s="41"/>
-      <c r="I90" s="41"/>
-      <c r="J90" s="45"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="49"/>
       <c r="K90" s="23"/>
       <c r="L90" s="8"/>
     </row>
@@ -3164,30 +3272,30 @@
       <c r="L96" s="8"/>
     </row>
     <row r="97" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A97" s="43"/>
-      <c r="B97" s="43"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="43"/>
-      <c r="J97" s="43"/>
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
+      <c r="D97" s="47"/>
+      <c r="E97" s="47"/>
+      <c r="F97" s="47"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="47"/>
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B98" s="44"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="45"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45"/>
+      <c r="G98" s="45"/>
+      <c r="H98" s="45"/>
+      <c r="I98" s="45"/>
+      <c r="J98" s="49"/>
       <c r="K98" s="23"/>
       <c r="L98" s="8"/>
     </row>
@@ -3284,30 +3392,30 @@
       <c r="L104" s="8"/>
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A105" s="43"/>
-      <c r="B105" s="43"/>
-      <c r="C105" s="43"/>
-      <c r="D105" s="43"/>
-      <c r="E105" s="43"/>
-      <c r="F105" s="43"/>
-      <c r="G105" s="43"/>
-      <c r="H105" s="43"/>
-      <c r="I105" s="43"/>
-      <c r="J105" s="43"/>
+      <c r="A105" s="47"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47"/>
+      <c r="G105" s="47"/>
+      <c r="H105" s="47"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="47"/>
     </row>
     <row r="106" spans="1:12">
       <c r="A106" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B106" s="44"/>
-      <c r="C106" s="41"/>
-      <c r="D106" s="41"/>
-      <c r="E106" s="41"/>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="45"/>
+      <c r="B106" s="48"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="45"/>
+      <c r="F106" s="45"/>
+      <c r="G106" s="45"/>
+      <c r="H106" s="45"/>
+      <c r="I106" s="45"/>
+      <c r="J106" s="49"/>
       <c r="K106" s="23"/>
       <c r="L106" s="8"/>
     </row>
@@ -3404,30 +3512,30 @@
       <c r="L112" s="8"/>
     </row>
     <row r="113" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A113" s="43"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="43"/>
-      <c r="J113" s="43"/>
+      <c r="A113" s="47"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
     </row>
     <row r="114" spans="1:12">
       <c r="A114" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B114" s="44"/>
-      <c r="C114" s="41"/>
-      <c r="D114" s="41"/>
-      <c r="E114" s="41"/>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41"/>
-      <c r="H114" s="41"/>
-      <c r="I114" s="41"/>
-      <c r="J114" s="45"/>
+      <c r="B114" s="48"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="45"/>
+      <c r="E114" s="45"/>
+      <c r="F114" s="45"/>
+      <c r="G114" s="45"/>
+      <c r="H114" s="45"/>
+      <c r="I114" s="45"/>
+      <c r="J114" s="49"/>
       <c r="K114" s="23"/>
       <c r="L114" s="8"/>
     </row>
@@ -3524,30 +3632,30 @@
       <c r="L120" s="8"/>
     </row>
     <row r="121" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A121" s="43"/>
-      <c r="B121" s="43"/>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
-      <c r="E121" s="43"/>
-      <c r="F121" s="43"/>
-      <c r="G121" s="43"/>
-      <c r="H121" s="43"/>
-      <c r="I121" s="43"/>
-      <c r="J121" s="43"/>
+      <c r="A121" s="47"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="F121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="H121" s="47"/>
+      <c r="I121" s="47"/>
+      <c r="J121" s="47"/>
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B122" s="44"/>
-      <c r="C122" s="41"/>
-      <c r="D122" s="41"/>
-      <c r="E122" s="41"/>
-      <c r="F122" s="41"/>
-      <c r="G122" s="41"/>
-      <c r="H122" s="41"/>
-      <c r="I122" s="41"/>
-      <c r="J122" s="45"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="45"/>
+      <c r="G122" s="45"/>
+      <c r="H122" s="45"/>
+      <c r="I122" s="45"/>
+      <c r="J122" s="49"/>
       <c r="K122" s="23"/>
       <c r="L122" s="8"/>
     </row>
@@ -3644,30 +3752,30 @@
       <c r="L128" s="8"/>
     </row>
     <row r="129" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A129" s="43"/>
-      <c r="B129" s="43"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
-      <c r="E129" s="43"/>
-      <c r="F129" s="43"/>
-      <c r="G129" s="43"/>
-      <c r="H129" s="43"/>
-      <c r="I129" s="43"/>
-      <c r="J129" s="43"/>
+      <c r="A129" s="47"/>
+      <c r="B129" s="47"/>
+      <c r="C129" s="47"/>
+      <c r="D129" s="47"/>
+      <c r="E129" s="47"/>
+      <c r="F129" s="47"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="47"/>
     </row>
     <row r="130" spans="1:12">
       <c r="A130" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B130" s="44"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="45"/>
+      <c r="B130" s="48"/>
+      <c r="C130" s="45"/>
+      <c r="D130" s="45"/>
+      <c r="E130" s="45"/>
+      <c r="F130" s="45"/>
+      <c r="G130" s="45"/>
+      <c r="H130" s="45"/>
+      <c r="I130" s="45"/>
+      <c r="J130" s="49"/>
       <c r="K130" s="23"/>
       <c r="L130" s="8"/>
     </row>
@@ -3764,30 +3872,30 @@
       <c r="L136" s="8"/>
     </row>
     <row r="137" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A137" s="43"/>
-      <c r="B137" s="43"/>
-      <c r="C137" s="43"/>
-      <c r="D137" s="43"/>
-      <c r="E137" s="43"/>
-      <c r="F137" s="43"/>
-      <c r="G137" s="43"/>
-      <c r="H137" s="43"/>
-      <c r="I137" s="43"/>
-      <c r="J137" s="43"/>
+      <c r="A137" s="47"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="47"/>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="47"/>
     </row>
     <row r="138" spans="1:12">
       <c r="A138" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B138" s="44"/>
-      <c r="C138" s="41"/>
-      <c r="D138" s="41"/>
-      <c r="E138" s="41"/>
-      <c r="F138" s="41"/>
-      <c r="G138" s="41"/>
-      <c r="H138" s="41"/>
-      <c r="I138" s="41"/>
-      <c r="J138" s="45"/>
+      <c r="B138" s="48"/>
+      <c r="C138" s="45"/>
+      <c r="D138" s="45"/>
+      <c r="E138" s="45"/>
+      <c r="F138" s="45"/>
+      <c r="G138" s="45"/>
+      <c r="H138" s="45"/>
+      <c r="I138" s="45"/>
+      <c r="J138" s="49"/>
       <c r="K138" s="23"/>
       <c r="L138" s="8"/>
     </row>
@@ -3884,30 +3992,30 @@
       <c r="L144" s="8"/>
     </row>
     <row r="145" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A145" s="43"/>
-      <c r="B145" s="43"/>
-      <c r="C145" s="43"/>
-      <c r="D145" s="43"/>
-      <c r="E145" s="43"/>
-      <c r="F145" s="43"/>
-      <c r="G145" s="43"/>
-      <c r="H145" s="43"/>
-      <c r="I145" s="43"/>
-      <c r="J145" s="43"/>
+      <c r="A145" s="47"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="47"/>
+      <c r="D145" s="47"/>
+      <c r="E145" s="47"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="47"/>
+      <c r="I145" s="47"/>
+      <c r="J145" s="47"/>
     </row>
     <row r="146" spans="1:12">
       <c r="A146" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B146" s="44"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="41"/>
-      <c r="F146" s="41"/>
-      <c r="G146" s="41"/>
-      <c r="H146" s="41"/>
-      <c r="I146" s="41"/>
-      <c r="J146" s="45"/>
+      <c r="B146" s="48"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="45"/>
+      <c r="H146" s="45"/>
+      <c r="I146" s="45"/>
+      <c r="J146" s="49"/>
       <c r="K146" s="23"/>
       <c r="L146" s="8"/>
     </row>
@@ -4004,30 +4112,30 @@
       <c r="L152" s="8"/>
     </row>
     <row r="153" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A153" s="43"/>
-      <c r="B153" s="43"/>
-      <c r="C153" s="43"/>
-      <c r="D153" s="43"/>
-      <c r="E153" s="43"/>
-      <c r="F153" s="43"/>
-      <c r="G153" s="43"/>
-      <c r="H153" s="43"/>
-      <c r="I153" s="43"/>
-      <c r="J153" s="43"/>
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="47"/>
     </row>
     <row r="154" spans="1:12">
       <c r="A154" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B154" s="44"/>
-      <c r="C154" s="41"/>
-      <c r="D154" s="41"/>
-      <c r="E154" s="41"/>
-      <c r="F154" s="41"/>
-      <c r="G154" s="41"/>
-      <c r="H154" s="41"/>
-      <c r="I154" s="41"/>
-      <c r="J154" s="45"/>
+      <c r="B154" s="48"/>
+      <c r="C154" s="45"/>
+      <c r="D154" s="45"/>
+      <c r="E154" s="45"/>
+      <c r="F154" s="45"/>
+      <c r="G154" s="45"/>
+      <c r="H154" s="45"/>
+      <c r="I154" s="45"/>
+      <c r="J154" s="49"/>
       <c r="K154" s="23"/>
       <c r="L154" s="8"/>
     </row>
@@ -4124,30 +4232,30 @@
       <c r="L160" s="8"/>
     </row>
     <row r="161" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A161" s="43"/>
-      <c r="B161" s="43"/>
-      <c r="C161" s="43"/>
-      <c r="D161" s="43"/>
-      <c r="E161" s="43"/>
-      <c r="F161" s="43"/>
-      <c r="G161" s="43"/>
-      <c r="H161" s="43"/>
-      <c r="I161" s="43"/>
-      <c r="J161" s="43"/>
+      <c r="A161" s="47"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="47"/>
+      <c r="D161" s="47"/>
+      <c r="E161" s="47"/>
+      <c r="F161" s="47"/>
+      <c r="G161" s="47"/>
+      <c r="H161" s="47"/>
+      <c r="I161" s="47"/>
+      <c r="J161" s="47"/>
     </row>
     <row r="162" spans="1:12">
       <c r="A162" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B162" s="44"/>
-      <c r="C162" s="41"/>
-      <c r="D162" s="41"/>
-      <c r="E162" s="41"/>
-      <c r="F162" s="41"/>
-      <c r="G162" s="41"/>
-      <c r="H162" s="41"/>
-      <c r="I162" s="41"/>
-      <c r="J162" s="45"/>
+      <c r="B162" s="48"/>
+      <c r="C162" s="45"/>
+      <c r="D162" s="45"/>
+      <c r="E162" s="45"/>
+      <c r="F162" s="45"/>
+      <c r="G162" s="45"/>
+      <c r="H162" s="45"/>
+      <c r="I162" s="45"/>
+      <c r="J162" s="49"/>
       <c r="K162" s="23"/>
       <c r="L162" s="8"/>
     </row>
@@ -4244,30 +4352,30 @@
       <c r="L168" s="8"/>
     </row>
     <row r="169" spans="1:12" ht="15.75" thickBot="1">
-      <c r="A169" s="43"/>
-      <c r="B169" s="43"/>
-      <c r="C169" s="43"/>
-      <c r="D169" s="43"/>
-      <c r="E169" s="43"/>
-      <c r="F169" s="43"/>
-      <c r="G169" s="43"/>
-      <c r="H169" s="43"/>
-      <c r="I169" s="43"/>
-      <c r="J169" s="43"/>
+      <c r="A169" s="47"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="47"/>
+      <c r="D169" s="47"/>
+      <c r="E169" s="47"/>
+      <c r="F169" s="47"/>
+      <c r="G169" s="47"/>
+      <c r="H169" s="47"/>
+      <c r="I169" s="47"/>
+      <c r="J169" s="47"/>
     </row>
     <row r="170" spans="1:12">
       <c r="A170" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B170" s="44"/>
-      <c r="C170" s="41"/>
-      <c r="D170" s="41"/>
-      <c r="E170" s="41"/>
-      <c r="F170" s="41"/>
-      <c r="G170" s="41"/>
-      <c r="H170" s="41"/>
-      <c r="I170" s="41"/>
-      <c r="J170" s="45"/>
+      <c r="B170" s="48"/>
+      <c r="C170" s="45"/>
+      <c r="D170" s="45"/>
+      <c r="E170" s="45"/>
+      <c r="F170" s="45"/>
+      <c r="G170" s="45"/>
+      <c r="H170" s="45"/>
+      <c r="I170" s="45"/>
+      <c r="J170" s="49"/>
       <c r="K170" s="23"/>
       <c r="L170" s="8"/>
     </row>
@@ -4364,28 +4472,28 @@
       <c r="L176" s="8"/>
     </row>
     <row r="177" spans="1:10">
-      <c r="A177" s="41"/>
-      <c r="B177" s="41"/>
-      <c r="C177" s="41"/>
-      <c r="D177" s="41"/>
-      <c r="E177" s="41"/>
-      <c r="F177" s="41"/>
-      <c r="G177" s="41"/>
-      <c r="H177" s="41"/>
-      <c r="I177" s="41"/>
-      <c r="J177" s="41"/>
+      <c r="A177" s="45"/>
+      <c r="B177" s="45"/>
+      <c r="C177" s="45"/>
+      <c r="D177" s="45"/>
+      <c r="E177" s="45"/>
+      <c r="F177" s="45"/>
+      <c r="G177" s="45"/>
+      <c r="H177" s="45"/>
+      <c r="I177" s="45"/>
+      <c r="J177" s="45"/>
     </row>
     <row r="178" spans="1:10">
-      <c r="A178" s="42"/>
-      <c r="B178" s="42"/>
-      <c r="C178" s="42"/>
-      <c r="D178" s="42"/>
-      <c r="E178" s="42"/>
-      <c r="F178" s="42"/>
-      <c r="G178" s="42"/>
-      <c r="H178" s="42"/>
-      <c r="I178" s="42"/>
-      <c r="J178" s="42"/>
+      <c r="A178" s="46"/>
+      <c r="B178" s="46"/>
+      <c r="C178" s="46"/>
+      <c r="D178" s="46"/>
+      <c r="E178" s="46"/>
+      <c r="F178" s="46"/>
+      <c r="G178" s="46"/>
+      <c r="H178" s="46"/>
+      <c r="I178" s="46"/>
+      <c r="J178" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="45">
